--- a/branches/fix/ValueSet-vs-type-of-contact.xlsx
+++ b/branches/fix/ValueSet-vs-type-of-contact.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:45:36+00:00</t>
+    <t>2022-01-16T18:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix/ValueSet-vs-type-of-contact.xlsx
+++ b/branches/fix/ValueSet-vs-type-of-contact.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T18:51:47+00:00</t>
+    <t>2022-01-16T19:00:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/fix/ValueSet-vs-type-of-contact.xlsx
+++ b/branches/fix/ValueSet-vs-type-of-contact.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T19:00:02+00:00</t>
+    <t>2022-01-16T19:22:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
